--- a/ReadMe/General/UnityPlugins架构图.xlsx
+++ b/ReadMe/General/UnityPlugins架构图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/01.WorkDir/01.Project/Tools/UnityPlugins/ReadMe/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1143C1E6-AF5C-D84F-99CB-E97E68018F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90E1E07-442B-EE4F-965B-11FD49B75FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{9BDDD301-64C5-D74C-BF77-739467697EB3}"/>
   </bookViews>
@@ -161,12 +161,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -184,8 +184,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="6184900"/>
-          <a:ext cx="6985000" cy="850900"/>
+          <a:off x="800100" y="6184900"/>
+          <a:ext cx="5257800" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -225,12 +225,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -248,8 +248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="5511800"/>
-          <a:ext cx="6985000" cy="850900"/>
+          <a:off x="787400" y="5511800"/>
+          <a:ext cx="5270500" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -298,13 +298,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>41664</xdr:colOff>
+      <xdr:colOff>67064</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>71521</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -321,8 +321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="765564" y="4838700"/>
-          <a:ext cx="1960257" cy="850900"/>
+          <a:off x="790964" y="4838700"/>
+          <a:ext cx="1469636" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -361,14 +361,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>155964</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41664</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>185821</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -385,8 +385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2327664" y="4838700"/>
-          <a:ext cx="1960257" cy="850900"/>
+          <a:off x="1972064" y="4838700"/>
+          <a:ext cx="1469636" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -425,14 +425,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158151</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -449,8 +449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987799" y="4838700"/>
-          <a:ext cx="2108201" cy="850900"/>
+          <a:off x="3162299" y="4838700"/>
+          <a:ext cx="1580552" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -489,14 +489,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>88899</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>18451</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -513,8 +513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638799" y="4838700"/>
-          <a:ext cx="2108201" cy="850900"/>
+          <a:off x="4470399" y="4838700"/>
+          <a:ext cx="1580552" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -571,13 +571,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -594,8 +594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="4165600"/>
-          <a:ext cx="6985000" cy="850900"/>
+          <a:off x="787400" y="4165600"/>
+          <a:ext cx="5245100" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -652,15 +652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -675,8 +675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="3505200"/>
-          <a:ext cx="6985000" cy="850900"/>
+          <a:off x="787400" y="3492500"/>
+          <a:ext cx="5245100" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -719,15 +719,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -742,8 +742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="774700" y="2832100"/>
-          <a:ext cx="6972300" cy="850900"/>
+          <a:off x="787400" y="2819400"/>
+          <a:ext cx="3543300" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FA9B28-6C50-304E-8741-0EB213A932FE}">
   <dimension ref="AJ5:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT18" sqref="AT18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16"/>
